--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="119">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,10 +49,13 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>returned</t>
+    <t>stopped</t>
   </si>
   <si>
     <t>poor</t>
@@ -61,18 +64,15 @@
     <t>however</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
-    <t>broken</t>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>waste</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
@@ -91,250 +91,247 @@
     <t>love</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>perfect</t>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>loved</t>
   </si>
   <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>salad</t>
+    <t>family</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>sturdy</t>
   </si>
   <si>
     <t>husband</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>potatoes</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
     <t>bread</t>
   </si>
   <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>rice</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>pie</t>
   </si>
   <si>
     <t>kids</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
     <t>years</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>cream</t>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>kitchen</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>tea</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>works</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
     <t>always</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>far</t>
   </si>
   <si>
     <t>ice</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>exactly</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>wish</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>anyone</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>wish</t>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>also</t>
   </si>
   <si>
     <t>makes</t>
   </si>
   <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>many</t>
+    <t>big</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>last</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>big</t>
+    <t>job</t>
+  </si>
+  <si>
+    <t>long</t>
   </si>
   <si>
     <t>like</t>
@@ -343,37 +340,31 @@
     <t>one</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>job</t>
+    <t>really</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>really</t>
+    <t>used</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>buy</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>used</t>
   </si>
   <si>
     <t>product</t>
@@ -737,7 +728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q102"/>
+  <dimension ref="A1:Q99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -748,7 +739,7 @@
         <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -806,13 +797,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.896551724137931</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -824,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K3">
-        <v>0.9354838709677419</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -848,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -880,13 +871,13 @@
         <v>22</v>
       </c>
       <c r="K4">
-        <v>0.8840579710144928</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L4">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M4">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -898,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -930,13 +921,13 @@
         <v>23</v>
       </c>
       <c r="K5">
-        <v>0.8828125</v>
+        <v>0.8984375</v>
       </c>
       <c r="L5">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -948,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -956,13 +947,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4108527131782946</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="C6">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D6">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -974,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K6">
-        <v>0.8591331269349846</v>
+        <v>0.8575851393188855</v>
       </c>
       <c r="L6">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M6">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -998,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1006,13 +997,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3838383838383838</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="C7">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D7">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1024,19 +1015,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K7">
-        <v>0.7608695652173914</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1048,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1056,13 +1047,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.36</v>
+        <v>0.3773584905660378</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1074,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K8">
-        <v>0.7586206896551724</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1098,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1106,13 +1097,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3461538461538461</v>
+        <v>0.36</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1124,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K9">
-        <v>0.7316017316017316</v>
+        <v>0.7254237288135593</v>
       </c>
       <c r="L9">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="M9">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1148,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1156,13 +1147,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3207547169811321</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1174,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K10">
-        <v>0.7272727272727273</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="L10">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1198,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1206,13 +1197,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1777777777777778</v>
+        <v>0.1844660194174757</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1224,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K11">
-        <v>0.7220338983050848</v>
+        <v>0.7056277056277056</v>
       </c>
       <c r="L11">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="M11">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1248,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1256,13 +1247,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1621621621621622</v>
+        <v>0.1610169491525424</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1274,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K12">
-        <v>0.6818181818181818</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1298,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1306,13 +1297,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1440677966101695</v>
+        <v>0.145945945945946</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1324,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>31</v>
@@ -1356,13 +1347,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1082474226804124</v>
+        <v>0.09278350515463918</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>0.05</v>
@@ -1374,19 +1365,19 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K14">
-        <v>0.6364365971107544</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="L14">
-        <v>793</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>793</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1398,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>453</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1406,13 +1397,13 @@
         <v>33</v>
       </c>
       <c r="K15">
-        <v>0.6323529411764706</v>
+        <v>0.6412520064205457</v>
       </c>
       <c r="L15">
-        <v>43</v>
+        <v>799</v>
       </c>
       <c r="M15">
-        <v>43</v>
+        <v>799</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1424,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>25</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1432,13 +1423,13 @@
         <v>34</v>
       </c>
       <c r="K16">
-        <v>0.6285714285714286</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L16">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1450,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1458,13 +1449,13 @@
         <v>35</v>
       </c>
       <c r="K17">
-        <v>0.6222222222222222</v>
+        <v>0.609375</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1476,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1484,13 +1475,13 @@
         <v>36</v>
       </c>
       <c r="K18">
-        <v>0.6027397260273972</v>
+        <v>0.6</v>
       </c>
       <c r="L18">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="M18">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1502,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1510,13 +1501,13 @@
         <v>37</v>
       </c>
       <c r="K19">
-        <v>0.5964912280701754</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1528,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1536,13 +1527,13 @@
         <v>38</v>
       </c>
       <c r="K20">
-        <v>0.59375</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1554,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1562,13 +1553,13 @@
         <v>39</v>
       </c>
       <c r="K21">
-        <v>0.5846153846153846</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L21">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M21">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1580,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1588,13 +1579,13 @@
         <v>40</v>
       </c>
       <c r="K22">
-        <v>0.5811965811965812</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L22">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="M22">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1606,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1614,13 +1605,13 @@
         <v>41</v>
       </c>
       <c r="K23">
-        <v>0.5657142857142857</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="L23">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="M23">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1632,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1640,13 +1631,13 @@
         <v>42</v>
       </c>
       <c r="K24">
-        <v>0.5625</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="L24">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="M24">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1658,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1666,13 +1657,13 @@
         <v>43</v>
       </c>
       <c r="K25">
-        <v>0.5576923076923077</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L25">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="M25">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1684,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1692,13 +1683,13 @@
         <v>44</v>
       </c>
       <c r="K26">
-        <v>0.5389221556886228</v>
+        <v>0.5269461077844312</v>
       </c>
       <c r="L26">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M26">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1710,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1718,13 +1709,13 @@
         <v>45</v>
       </c>
       <c r="K27">
-        <v>0.5131578947368421</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L27">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1736,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1744,13 +1735,13 @@
         <v>46</v>
       </c>
       <c r="K28">
-        <v>0.4819277108433735</v>
+        <v>0.5213675213675214</v>
       </c>
       <c r="L28">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="M28">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1762,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>86</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1770,13 +1761,13 @@
         <v>47</v>
       </c>
       <c r="K29">
-        <v>0.4819277108433735</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="L29">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1788,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1796,13 +1787,13 @@
         <v>48</v>
       </c>
       <c r="K30">
-        <v>0.4761904761904762</v>
+        <v>0.4868421052631579</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1814,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1822,13 +1813,13 @@
         <v>49</v>
       </c>
       <c r="K31">
-        <v>0.47</v>
+        <v>0.481203007518797</v>
       </c>
       <c r="L31">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="M31">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1840,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1848,13 +1839,13 @@
         <v>50</v>
       </c>
       <c r="K32">
-        <v>0.4444444444444444</v>
+        <v>0.463855421686747</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="M32">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1866,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>40</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1874,13 +1865,13 @@
         <v>51</v>
       </c>
       <c r="K33">
-        <v>0.4360902255639098</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L33">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="M33">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1892,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1900,13 +1891,13 @@
         <v>52</v>
       </c>
       <c r="K34">
-        <v>0.4358974358974359</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1918,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1926,13 +1917,13 @@
         <v>53</v>
       </c>
       <c r="K35">
-        <v>0.4313725490196079</v>
+        <v>0.44</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1944,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1952,13 +1943,13 @@
         <v>54</v>
       </c>
       <c r="K36">
-        <v>0.4081632653061225</v>
+        <v>0.3995098039215687</v>
       </c>
       <c r="L36">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1970,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>29</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1978,13 +1969,13 @@
         <v>55</v>
       </c>
       <c r="K37">
-        <v>0.3852140077821012</v>
+        <v>0.3970588235294117</v>
       </c>
       <c r="L37">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="M37">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1996,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>158</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2004,13 +1995,13 @@
         <v>56</v>
       </c>
       <c r="K38">
-        <v>0.3848039215686275</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="L38">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="M38">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2022,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>251</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2030,13 +2021,13 @@
         <v>57</v>
       </c>
       <c r="K39">
-        <v>0.3823529411764706</v>
+        <v>0.375</v>
       </c>
       <c r="L39">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M39">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2048,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2056,13 +2047,13 @@
         <v>58</v>
       </c>
       <c r="K40">
-        <v>0.3709677419354839</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L40">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M40">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2074,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2108,13 +2099,13 @@
         <v>60</v>
       </c>
       <c r="K42">
-        <v>0.3643835616438356</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="L42">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c r="M42">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2126,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>464</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2134,13 +2125,13 @@
         <v>61</v>
       </c>
       <c r="K43">
-        <v>0.3525179856115108</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L43">
-        <v>49</v>
+        <v>260</v>
       </c>
       <c r="M43">
-        <v>49</v>
+        <v>260</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2152,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>90</v>
+        <v>470</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2160,13 +2151,13 @@
         <v>62</v>
       </c>
       <c r="K44">
-        <v>0.3443708609271523</v>
+        <v>0.3307392996108949</v>
       </c>
       <c r="L44">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="M44">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2178,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>99</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2186,13 +2177,13 @@
         <v>63</v>
       </c>
       <c r="K45">
-        <v>0.3333333333333333</v>
+        <v>0.3289473684210527</v>
       </c>
       <c r="L45">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="M45">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2204,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2212,13 +2203,13 @@
         <v>64</v>
       </c>
       <c r="K46">
-        <v>0.3278688524590164</v>
+        <v>0.3267326732673267</v>
       </c>
       <c r="L46">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M46">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2230,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2238,13 +2229,13 @@
         <v>65</v>
       </c>
       <c r="K47">
-        <v>0.3230769230769231</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L47">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="M47">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2256,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>44</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2264,13 +2255,13 @@
         <v>66</v>
       </c>
       <c r="K48">
-        <v>0.3214285714285715</v>
+        <v>0.3093525179856115</v>
       </c>
       <c r="L48">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="M48">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2282,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>38</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2290,25 +2281,25 @@
         <v>67</v>
       </c>
       <c r="K49">
-        <v>0.3214285714285715</v>
+        <v>0.3</v>
       </c>
       <c r="L49">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M49">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2316,13 +2307,13 @@
         <v>68</v>
       </c>
       <c r="K50">
-        <v>0.3110047846889952</v>
+        <v>0.2966507177033493</v>
       </c>
       <c r="L50">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M50">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2334,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2342,13 +2333,13 @@
         <v>69</v>
       </c>
       <c r="K51">
-        <v>0.3026315789473684</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="L51">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M51">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2360,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2368,13 +2359,13 @@
         <v>70</v>
       </c>
       <c r="K52">
-        <v>0.2839506172839506</v>
+        <v>0.2680301399354144</v>
       </c>
       <c r="L52">
-        <v>23</v>
+        <v>249</v>
       </c>
       <c r="M52">
-        <v>23</v>
+        <v>249</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2386,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>58</v>
+        <v>680</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2394,13 +2385,13 @@
         <v>71</v>
       </c>
       <c r="K53">
-        <v>0.2772277227722773</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="L53">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M53">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2412,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>73</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2420,13 +2411,13 @@
         <v>72</v>
       </c>
       <c r="K54">
-        <v>0.2755651237890204</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L54">
-        <v>256</v>
+        <v>29</v>
       </c>
       <c r="M54">
-        <v>256</v>
+        <v>29</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2438,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>673</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2446,13 +2437,13 @@
         <v>73</v>
       </c>
       <c r="K55">
-        <v>0.2706766917293233</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="L55">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M55">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2464,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2472,25 +2463,25 @@
         <v>74</v>
       </c>
       <c r="K56">
-        <v>0.25</v>
+        <v>0.234314980793854</v>
       </c>
       <c r="L56">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="M56">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>54</v>
+        <v>598</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2498,13 +2489,13 @@
         <v>75</v>
       </c>
       <c r="K57">
-        <v>0.25</v>
+        <v>0.2251655629139073</v>
       </c>
       <c r="L57">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="M57">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2516,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>45</v>
+        <v>585</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2524,13 +2515,13 @@
         <v>76</v>
       </c>
       <c r="K58">
-        <v>0.2432432432432433</v>
+        <v>0.2185430463576159</v>
       </c>
       <c r="L58">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M58">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2542,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>84</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2550,13 +2541,13 @@
         <v>77</v>
       </c>
       <c r="K59">
-        <v>0.2391304347826087</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L59">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M59">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2568,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2576,13 +2567,13 @@
         <v>78</v>
       </c>
       <c r="K60">
-        <v>0.2263427109974425</v>
+        <v>0.213166144200627</v>
       </c>
       <c r="L60">
-        <v>177</v>
+        <v>68</v>
       </c>
       <c r="M60">
-        <v>177</v>
+        <v>68</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2594,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>605</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2602,13 +2593,13 @@
         <v>79</v>
       </c>
       <c r="K61">
-        <v>0.2251655629139073</v>
+        <v>0.201219512195122</v>
       </c>
       <c r="L61">
-        <v>170</v>
+        <v>33</v>
       </c>
       <c r="M61">
-        <v>170</v>
+        <v>33</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2620,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>585</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2628,25 +2619,25 @@
         <v>80</v>
       </c>
       <c r="K62">
-        <v>0.2147651006711409</v>
+        <v>0.2005420054200542</v>
       </c>
       <c r="L62">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="M62">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>117</v>
+        <v>295</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2654,13 +2645,13 @@
         <v>81</v>
       </c>
       <c r="K63">
-        <v>0.2123893805309734</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="L63">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M63">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2672,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>89</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2680,13 +2671,13 @@
         <v>82</v>
       </c>
       <c r="K64">
-        <v>0.2037037037037037</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="L64">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M64">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2698,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2706,13 +2697,13 @@
         <v>83</v>
       </c>
       <c r="K65">
-        <v>0.1974921630094044</v>
+        <v>0.1809523809523809</v>
       </c>
       <c r="L65">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="M65">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2724,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>256</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2732,13 +2723,13 @@
         <v>84</v>
       </c>
       <c r="K66">
-        <v>0.1890243902439024</v>
+        <v>0.18</v>
       </c>
       <c r="L66">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M66">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2750,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>133</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2758,13 +2749,13 @@
         <v>85</v>
       </c>
       <c r="K67">
-        <v>0.180327868852459</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="L67">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M67">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2776,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2784,25 +2775,25 @@
         <v>86</v>
       </c>
       <c r="K68">
-        <v>0.1657608695652174</v>
+        <v>0.1732456140350877</v>
       </c>
       <c r="L68">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="M68">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="N68">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>307</v>
+        <v>377</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2810,13 +2801,13 @@
         <v>87</v>
       </c>
       <c r="K69">
-        <v>0.162291169451074</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L69">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="M69">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2828,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>351</v>
+        <v>225</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2836,13 +2827,13 @@
         <v>88</v>
       </c>
       <c r="K70">
-        <v>0.1612903225806452</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="L70">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M70">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2854,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>78</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2862,13 +2853,13 @@
         <v>89</v>
       </c>
       <c r="K71">
-        <v>0.16</v>
+        <v>0.1630434782608696</v>
       </c>
       <c r="L71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2880,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2888,25 +2879,25 @@
         <v>90</v>
       </c>
       <c r="K72">
-        <v>0.1545454545454545</v>
+        <v>0.1607142857142857</v>
       </c>
       <c r="L72">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="M72">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>372</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2914,25 +2905,25 @@
         <v>91</v>
       </c>
       <c r="K73">
-        <v>0.1530612244897959</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L73">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M73">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N73">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>83</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2940,13 +2931,13 @@
         <v>92</v>
       </c>
       <c r="K74">
-        <v>0.1523809523809524</v>
+        <v>0.1527446300715991</v>
       </c>
       <c r="L74">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="M74">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2958,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>89</v>
+        <v>355</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2966,13 +2957,13 @@
         <v>93</v>
       </c>
       <c r="K75">
-        <v>0.1481481481481481</v>
+        <v>0.1477272727272727</v>
       </c>
       <c r="L75">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="M75">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2984,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>230</v>
+        <v>375</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2992,13 +2983,13 @@
         <v>94</v>
       </c>
       <c r="K76">
-        <v>0.1469298245614035</v>
+        <v>0.1362530413625304</v>
       </c>
       <c r="L76">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="M76">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -3010,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>389</v>
+        <v>355</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -3018,13 +3009,13 @@
         <v>95</v>
       </c>
       <c r="K77">
-        <v>0.1384615384615385</v>
+        <v>0.1302521008403361</v>
       </c>
       <c r="L77">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M77">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3036,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>112</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -3044,13 +3035,13 @@
         <v>96</v>
       </c>
       <c r="K78">
-        <v>0.1328413284132841</v>
+        <v>0.1299435028248588</v>
       </c>
       <c r="L78">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M78">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3062,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>235</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -3070,25 +3061,25 @@
         <v>97</v>
       </c>
       <c r="K79">
-        <v>0.1297709923664122</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="L79">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M79">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
-        <v>114</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -3096,13 +3087,13 @@
         <v>98</v>
       </c>
       <c r="K80">
-        <v>0.1282051282051282</v>
+        <v>0.1231527093596059</v>
       </c>
       <c r="L80">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M80">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3114,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>102</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -3122,13 +3113,13 @@
         <v>99</v>
       </c>
       <c r="K81">
-        <v>0.127147766323024</v>
+        <v>0.1217712177121771</v>
       </c>
       <c r="L81">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M81">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3140,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3148,13 +3139,13 @@
         <v>100</v>
       </c>
       <c r="K82">
-        <v>0.1218487394957983</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="L82">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M82">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3166,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>209</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -3174,7 +3165,7 @@
         <v>101</v>
       </c>
       <c r="K83">
-        <v>0.119047619047619</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="L83">
         <v>15</v>
@@ -3192,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3200,25 +3191,25 @@
         <v>102</v>
       </c>
       <c r="K84">
-        <v>0.1162790697674419</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L84">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M84">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84">
-        <v>114</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3226,13 +3217,13 @@
         <v>103</v>
       </c>
       <c r="K85">
-        <v>0.1153846153846154</v>
+        <v>0.1099656357388316</v>
       </c>
       <c r="L85">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M85">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3244,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>138</v>
+        <v>259</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3252,13 +3243,13 @@
         <v>104</v>
       </c>
       <c r="K86">
-        <v>0.1129943502824859</v>
+        <v>0.1008064516129032</v>
       </c>
       <c r="L86">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M86">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3270,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>157</v>
+        <v>223</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3278,13 +3269,13 @@
         <v>105</v>
       </c>
       <c r="K87">
-        <v>0.1119221411192214</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="L87">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="M87">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3296,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>365</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -3304,25 +3295,25 @@
         <v>106</v>
       </c>
       <c r="K88">
-        <v>0.103030303030303</v>
+        <v>0.09352517985611511</v>
       </c>
       <c r="L88">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="M88">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88">
-        <v>148</v>
+        <v>630</v>
       </c>
     </row>
     <row r="89" spans="10:17">
@@ -3330,25 +3321,25 @@
         <v>107</v>
       </c>
       <c r="K89">
-        <v>0.09182209469153516</v>
+        <v>0.09337068160597572</v>
       </c>
       <c r="L89">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="M89">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="N89">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O89">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P89" t="b">
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>633</v>
+        <v>971</v>
       </c>
     </row>
     <row r="90" spans="10:17">
@@ -3356,25 +3347,25 @@
         <v>108</v>
       </c>
       <c r="K90">
-        <v>0.09158878504672897</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L90">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="M90">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N90">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O90">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>972</v>
+        <v>336</v>
       </c>
     </row>
     <row r="91" spans="10:17">
@@ -3382,13 +3373,13 @@
         <v>109</v>
       </c>
       <c r="K91">
-        <v>0.08374384236453201</v>
+        <v>0.07380073800738007</v>
       </c>
       <c r="L91">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M91">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3400,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>186</v>
+        <v>502</v>
       </c>
     </row>
     <row r="92" spans="10:17">
@@ -3408,13 +3399,13 @@
         <v>110</v>
       </c>
       <c r="K92">
-        <v>0.08064516129032258</v>
+        <v>0.06985294117647059</v>
       </c>
       <c r="L92">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M92">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -3426,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>228</v>
+        <v>253</v>
       </c>
     </row>
     <row r="93" spans="10:17">
@@ -3434,25 +3425,25 @@
         <v>111</v>
       </c>
       <c r="K93">
-        <v>0.07763401109057301</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="L93">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="M93">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N93">
-        <v>0.98</v>
+        <v>0.87</v>
       </c>
       <c r="O93">
-        <v>0.02000000000000002</v>
+        <v>0.13</v>
       </c>
       <c r="P93" t="b">
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>499</v>
+        <v>484</v>
       </c>
     </row>
     <row r="94" spans="10:17">
@@ -3460,25 +3451,25 @@
         <v>112</v>
       </c>
       <c r="K94">
-        <v>0.07211538461538461</v>
+        <v>0.05234159779614325</v>
       </c>
       <c r="L94">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M94">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N94">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O94">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q94">
-        <v>193</v>
+        <v>344</v>
       </c>
     </row>
     <row r="95" spans="10:17">
@@ -3486,25 +3477,25 @@
         <v>113</v>
       </c>
       <c r="K95">
-        <v>0.06617647058823529</v>
+        <v>0.05212858384013901</v>
       </c>
       <c r="L95">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="M95">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="N95">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O95">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q95">
-        <v>254</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="96" spans="10:17">
@@ -3512,25 +3503,25 @@
         <v>114</v>
       </c>
       <c r="K96">
-        <v>0.06557377049180328</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="L96">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M96">
         <v>24</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="O96">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="P96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q96">
-        <v>342</v>
+        <v>390</v>
       </c>
     </row>
     <row r="97" spans="10:17">
@@ -3538,25 +3529,25 @@
         <v>115</v>
       </c>
       <c r="K97">
-        <v>0.05785123966942149</v>
+        <v>0.04373177842565597</v>
       </c>
       <c r="L97">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M97">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N97">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="O97">
-        <v>0.08999999999999997</v>
+        <v>0.12</v>
       </c>
       <c r="P97" t="b">
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>342</v>
+        <v>328</v>
       </c>
     </row>
     <row r="98" spans="10:17">
@@ -3564,25 +3555,25 @@
         <v>116</v>
       </c>
       <c r="K98">
-        <v>0.04591836734693878</v>
+        <v>0.04071246819338423</v>
       </c>
       <c r="L98">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M98">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N98">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O98">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P98" t="b">
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="99" spans="10:17">
@@ -3590,103 +3581,25 @@
         <v>117</v>
       </c>
       <c r="K99">
-        <v>0.04390243902439024</v>
+        <v>0.02225130890052356</v>
       </c>
       <c r="L99">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M99">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N99">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="O99">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="P99" t="b">
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="100" spans="10:17">
-      <c r="J100" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K100">
-        <v>0.04344048653344917</v>
-      </c>
-      <c r="L100">
-        <v>50</v>
-      </c>
-      <c r="M100">
-        <v>56</v>
-      </c>
-      <c r="N100">
-        <v>0.89</v>
-      </c>
-      <c r="O100">
-        <v>0.11</v>
-      </c>
-      <c r="P100" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q100">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="101" spans="10:17">
-      <c r="J101" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K101">
-        <v>0.04038461538461539</v>
-      </c>
-      <c r="L101">
-        <v>21</v>
-      </c>
-      <c r="M101">
-        <v>23</v>
-      </c>
-      <c r="N101">
-        <v>0.91</v>
-      </c>
-      <c r="O101">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P101" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q101">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="102" spans="10:17">
-      <c r="J102" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K102">
-        <v>0.03022339027595269</v>
-      </c>
-      <c r="L102">
-        <v>23</v>
-      </c>
-      <c r="M102">
-        <v>29</v>
-      </c>
-      <c r="N102">
-        <v>0.79</v>
-      </c>
-      <c r="O102">
-        <v>0.21</v>
-      </c>
-      <c r="P102" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q102">
-        <v>738</v>
+        <v>747</v>
       </c>
     </row>
   </sheetData>
